--- a/scripts/pga-2019.xlsx
+++ b/scripts/pga-2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mweimer/Documents/Github/golf-pool/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581C994C-DC33-6741-86A1-7CA2DAAA4C28}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B856B9AB-DD21-324A-8963-DA51E38CA70F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="215">
   <si>
     <t>2019 PGA Championship Player Pool</t>
   </si>
@@ -506,9 +506,6 @@
     <t xml:space="preserve">Adam Long </t>
   </si>
   <si>
-    <t xml:space="preserve">Sungjae Im </t>
-  </si>
-  <si>
     <t xml:space="preserve">Alexander Bjork </t>
   </si>
   <si>
@@ -702,6 +699,30 @@
   </si>
   <si>
     <t>Ryan Boudouris</t>
+  </si>
+  <si>
+    <t>Sung-jae Im</t>
+  </si>
+  <si>
+    <t>Matt Kilanski</t>
+  </si>
+  <si>
+    <t>Adam Scott</t>
+  </si>
+  <si>
+    <t>Aaron Wise</t>
+  </si>
+  <si>
+    <t>Jimmy Walker</t>
+  </si>
+  <si>
+    <t>Jason Day</t>
+  </si>
+  <si>
+    <t>Charley Hoffman</t>
+  </si>
+  <si>
+    <t>Cameron Champ</t>
   </si>
 </sst>
 </file>
@@ -1062,17 +1083,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1081,8 +1101,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1399,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView showGridLines="0" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1791,25 +1812,25 @@
     <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="38"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="16"/>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="38"/>
+      <c r="G13" s="40"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="37" t="s">
+      <c r="I13" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="38"/>
+      <c r="J13" s="40"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="37" t="s">
+      <c r="L13" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="38"/>
+      <c r="M13" s="40"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -3593,7 +3614,7 @@
         <v>65</v>
       </c>
       <c r="I50" s="23" t="s">
-        <v>142</v>
+        <v>207</v>
       </c>
       <c r="J50" s="11">
         <v>15000</v>
@@ -3603,7 +3624,7 @@
         <v>120</v>
       </c>
       <c r="L50" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M50" s="11">
         <v>50000</v>
@@ -3635,7 +3656,7 @@
         <v>66</v>
       </c>
       <c r="I51" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J51" s="11">
         <v>15000</v>
@@ -3645,7 +3666,7 @@
         <v>121</v>
       </c>
       <c r="L51" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M51" s="11">
         <v>50000</v>
@@ -3677,7 +3698,7 @@
         <v>67</v>
       </c>
       <c r="I52" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J52" s="11">
         <v>15000</v>
@@ -3687,7 +3708,7 @@
         <v>122</v>
       </c>
       <c r="L52" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M52" s="11">
         <v>50000</v>
@@ -3719,7 +3740,7 @@
         <v>68</v>
       </c>
       <c r="I53" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J53" s="11">
         <v>17500</v>
@@ -3729,7 +3750,7 @@
         <v>123</v>
       </c>
       <c r="L53" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M53" s="11">
         <v>50000</v>
@@ -3761,7 +3782,7 @@
         <v>69</v>
       </c>
       <c r="I54" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J54" s="11">
         <v>20000</v>
@@ -3771,7 +3792,7 @@
         <v>124</v>
       </c>
       <c r="L54" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M54" s="11">
         <v>50000</v>
@@ -3803,7 +3824,7 @@
         <v>70</v>
       </c>
       <c r="I55" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J55" s="11">
         <v>20000</v>
@@ -3813,7 +3834,7 @@
         <v>125</v>
       </c>
       <c r="L55" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M55" s="11">
         <v>50000</v>
@@ -3845,7 +3866,7 @@
         <v>71</v>
       </c>
       <c r="I56" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J56" s="11">
         <v>20000</v>
@@ -3855,7 +3876,7 @@
         <v>126</v>
       </c>
       <c r="L56" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M56" s="11">
         <v>50000</v>
@@ -3887,7 +3908,7 @@
         <v>72</v>
       </c>
       <c r="I57" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J57" s="11">
         <v>20000</v>
@@ -3897,7 +3918,7 @@
         <v>127</v>
       </c>
       <c r="L57" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M57" s="11">
         <v>50000</v>
@@ -3929,7 +3950,7 @@
         <v>73</v>
       </c>
       <c r="I58" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J58" s="11">
         <v>20000</v>
@@ -3939,7 +3960,7 @@
         <v>128</v>
       </c>
       <c r="L58" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M58" s="11">
         <v>50000</v>
@@ -3971,7 +3992,7 @@
         <v>74</v>
       </c>
       <c r="I59" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J59" s="11">
         <v>20000</v>
@@ -3981,7 +4002,7 @@
         <v>129</v>
       </c>
       <c r="L59" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M59" s="11">
         <v>50000</v>
@@ -4013,7 +4034,7 @@
         <v>75</v>
       </c>
       <c r="I60" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J60" s="11">
         <v>20000</v>
@@ -4023,7 +4044,7 @@
         <v>130</v>
       </c>
       <c r="L60" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M60" s="11">
         <v>50000</v>
@@ -4055,7 +4076,7 @@
         <v>76</v>
       </c>
       <c r="I61" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J61" s="11">
         <v>20000</v>
@@ -4065,7 +4086,7 @@
         <v>131</v>
       </c>
       <c r="L61" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M61" s="11">
         <v>50000</v>
@@ -4097,7 +4118,7 @@
         <v>77</v>
       </c>
       <c r="I62" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J62" s="11">
         <v>20000</v>
@@ -4107,7 +4128,7 @@
         <v>132</v>
       </c>
       <c r="L62" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M62" s="11">
         <v>100000</v>
@@ -4139,7 +4160,7 @@
         <v>78</v>
       </c>
       <c r="I63" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J63" s="11">
         <v>20000</v>
@@ -4149,7 +4170,7 @@
         <v>133</v>
       </c>
       <c r="L63" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M63" s="11">
         <v>100000</v>
@@ -4181,7 +4202,7 @@
         <v>79</v>
       </c>
       <c r="I64" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J64" s="11">
         <v>20000</v>
@@ -4191,7 +4212,7 @@
         <v>134</v>
       </c>
       <c r="L64" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M64" s="11">
         <v>200000</v>
@@ -4223,7 +4244,7 @@
         <v>80</v>
       </c>
       <c r="I65" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J65" s="11">
         <v>20000</v>
@@ -4233,7 +4254,7 @@
         <v>135</v>
       </c>
       <c r="L65" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M65" s="11">
         <v>250000</v>
@@ -4265,7 +4286,7 @@
         <v>81</v>
       </c>
       <c r="I66" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J66" s="11">
         <v>20000</v>
@@ -4275,7 +4296,7 @@
         <v>136</v>
       </c>
       <c r="L66" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M66" s="11">
         <v>250000</v>
@@ -4307,7 +4328,7 @@
         <v>82</v>
       </c>
       <c r="I67" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J67" s="11">
         <v>20000</v>
@@ -4317,7 +4338,7 @@
         <v>137</v>
       </c>
       <c r="L67" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M67" s="11">
         <v>250000</v>
@@ -4349,7 +4370,7 @@
         <v>83</v>
       </c>
       <c r="I68" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J68" s="11">
         <v>20000</v>
@@ -4359,7 +4380,7 @@
         <v>138</v>
       </c>
       <c r="L68" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M68" s="11">
         <v>250000</v>
@@ -4391,7 +4412,7 @@
         <v>84</v>
       </c>
       <c r="I69" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J69" s="11">
         <v>20000</v>
@@ -4401,7 +4422,7 @@
         <v>139</v>
       </c>
       <c r="L69" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M69" s="11">
         <v>250000</v>
@@ -4436,7 +4457,7 @@
         <v>140</v>
       </c>
       <c r="L70" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M70" s="11">
         <v>250000</v>
@@ -4471,7 +4492,7 @@
         <v>141</v>
       </c>
       <c r="L71" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M71" s="11">
         <v>250000</v>
@@ -4506,7 +4527,7 @@
         <v>142</v>
       </c>
       <c r="L72" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M72" s="11">
         <v>250000</v>
@@ -4541,7 +4562,7 @@
         <v>143</v>
       </c>
       <c r="L73" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M73" s="11">
         <v>250000</v>
@@ -4576,7 +4597,7 @@
         <v>144</v>
       </c>
       <c r="L74" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M74" s="11">
         <v>250000</v>
@@ -4611,7 +4632,7 @@
         <v>145</v>
       </c>
       <c r="L75" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M75" s="11">
         <v>250000</v>
@@ -4646,7 +4667,7 @@
         <v>146</v>
       </c>
       <c r="L76" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M76" s="11">
         <v>250000</v>
@@ -4681,7 +4702,7 @@
         <v>147</v>
       </c>
       <c r="L77" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M77" s="11">
         <v>250000</v>
@@ -4716,7 +4737,7 @@
         <v>148</v>
       </c>
       <c r="L78" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M78" s="11">
         <v>250000</v>
@@ -4751,7 +4772,7 @@
         <v>149</v>
       </c>
       <c r="L79" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M79" s="11">
         <v>250000</v>
@@ -4786,7 +4807,7 @@
         <v>150</v>
       </c>
       <c r="L80" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M80" s="11">
         <v>250000</v>
@@ -4821,7 +4842,7 @@
         <v>151</v>
       </c>
       <c r="L81" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M81" s="11">
         <v>250000</v>
@@ -4856,7 +4877,7 @@
         <v>152</v>
       </c>
       <c r="L82" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M82" s="11">
         <v>250000</v>
@@ -4891,7 +4912,7 @@
         <v>153</v>
       </c>
       <c r="L83" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M83" s="11">
         <v>250000</v>
@@ -4926,7 +4947,7 @@
         <v>154</v>
       </c>
       <c r="L84" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M84" s="11">
         <v>250000</v>
@@ -4949,10 +4970,10 @@
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="D85" s="13" t="s">
         <v>197</v>
-      </c>
-      <c r="D85" s="13" t="s">
-        <v>198</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -4965,7 +4986,7 @@
         <v>155</v>
       </c>
       <c r="L85" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M85" s="11">
         <v>250000</v>
@@ -5000,7 +5021,7 @@
         <v>156</v>
       </c>
       <c r="L86" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M86" s="11">
         <v>250000</v>
@@ -30737,24 +30758,24 @@
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="45" t="s">
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="45" t="s">
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="38"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="40"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -30770,27 +30791,27 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="38"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="40"/>
       <c r="G5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="38"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="40"/>
       <c r="K5" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="38"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="40"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -30806,7 +30827,7 @@
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="43"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="19" t="s">
         <v>25</v>
       </c>
@@ -30858,7 +30879,7 @@
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="44"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="24"/>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
@@ -30886,27 +30907,27 @@
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="38"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="40"/>
       <c r="G8" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="38"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="40"/>
       <c r="K8" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="38"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="40"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -30922,7 +30943,7 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="43"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="19" t="s">
         <v>25</v>
       </c>
@@ -30974,7 +30995,7 @@
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="44"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="24"/>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
@@ -31002,27 +31023,27 @@
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="38"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="40"/>
       <c r="G11" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="38"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="40"/>
       <c r="K11" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="38"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="40"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -31038,7 +31059,7 @@
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="43"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="19" t="s">
         <v>25</v>
       </c>
@@ -31090,7 +31111,7 @@
     </row>
     <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="44"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="24"/>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
@@ -31118,27 +31139,27 @@
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="38"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="40"/>
       <c r="G14" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="38"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="40"/>
       <c r="K14" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="38"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="40"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -31154,7 +31175,7 @@
     </row>
     <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="43"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="19" t="s">
         <v>25</v>
       </c>
@@ -31206,7 +31227,7 @@
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="44"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="24"/>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
@@ -58847,6 +58868,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:J11"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="K5:N5"/>
     <mergeCell ref="B8:B10"/>
@@ -58856,16 +58887,6 @@
     <mergeCell ref="K4:N4"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:F5"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="69" orientation="portrait"/>
@@ -58874,17 +58895,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D79E31-963C-1442-9EC1-CBC71C324A02}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -58938,7 +58958,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -58987,7 +59007,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -59035,12 +59055,12 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="46" t="s">
-        <v>203</v>
+      <c r="A19" s="37" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="37" t="s">
         <v>17</v>
       </c>
       <c r="B20" t="s">
@@ -59049,46 +59069,46 @@
       <c r="C20" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="47"/>
+      <c r="F20" s="38"/>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="B21" s="46" t="s">
+      <c r="A21" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="B21" s="37" t="s">
         <v>70</v>
       </c>
       <c r="C21" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="47"/>
+      <c r="F21" s="38"/>
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="F22" s="38"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="37" t="s">
         <v>205</v>
-      </c>
-      <c r="F22" s="47"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="B23" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="46" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="46" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -59121,7 +59141,7 @@
         <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -59136,8 +59156,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="46" t="s">
-        <v>207</v>
+      <c r="A31" s="37" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -59182,6 +59202,55 @@
       </c>
       <c r="C35" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>209</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>210</v>
+      </c>
+      <c r="B40" t="s">
+        <v>213</v>
+      </c>
+      <c r="C40" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>211</v>
+      </c>
+      <c r="B41" t="s">
+        <v>214</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/pga-2019.xlsx
+++ b/scripts/pga-2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mweimer/Documents/Github/golf-pool/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B856B9AB-DD21-324A-8963-DA51E38CA70F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA75D18-0A99-5C44-B718-4E20BFEBE5AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="232">
   <si>
     <t>2019 PGA Championship Player Pool</t>
   </si>
@@ -723,6 +723,57 @@
   </si>
   <si>
     <t>Cameron Champ</t>
+  </si>
+  <si>
+    <t>Andrew Kubaszewski</t>
+  </si>
+  <si>
+    <t>David Prevo</t>
+  </si>
+  <si>
+    <t>Cameron Weimer</t>
+  </si>
+  <si>
+    <t>Xander Schauffele</t>
+  </si>
+  <si>
+    <t>Rory McIlory</t>
+  </si>
+  <si>
+    <t>Tony Finau</t>
+  </si>
+  <si>
+    <t>Henrik Stenson</t>
+  </si>
+  <si>
+    <t>Louis Oosthuizen</t>
+  </si>
+  <si>
+    <t>Kevin Kisner</t>
+  </si>
+  <si>
+    <t>Emiliano Grillo</t>
+  </si>
+  <si>
+    <t>Beau Hossler</t>
+  </si>
+  <si>
+    <t>Danny Lee</t>
+  </si>
+  <si>
+    <t>Rob Labritz</t>
+  </si>
+  <si>
+    <t>Nick Royer</t>
+  </si>
+  <si>
+    <t>Drew Serruto</t>
+  </si>
+  <si>
+    <t>Steven Laake</t>
+  </si>
+  <si>
+    <t>Kevin O'Brien</t>
   </si>
 </sst>
 </file>
@@ -58895,16 +58946,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D79E31-963C-1442-9EC1-CBC71C324A02}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -59253,6 +59303,349 @@
         <v>82</v>
       </c>
     </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="37" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="37" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="37" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" t="s">
+        <v>218</v>
+      </c>
+      <c r="C56" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>220</v>
+      </c>
+      <c r="B57" t="s">
+        <v>221</v>
+      </c>
+      <c r="C57" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>223</v>
+      </c>
+      <c r="B58" t="s">
+        <v>224</v>
+      </c>
+      <c r="C58" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>225</v>
+      </c>
+      <c r="B59" t="s">
+        <v>226</v>
+      </c>
+      <c r="C59" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="37" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>42</v>
+      </c>
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="37" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>58</v>
+      </c>
+      <c r="B69" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>66</v>
+      </c>
+      <c r="B70" t="s">
+        <v>87</v>
+      </c>
+      <c r="C70" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>98</v>
+      </c>
+      <c r="B71" t="s">
+        <v>121</v>
+      </c>
+      <c r="C71" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="37" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>61</v>
+      </c>
+      <c r="B74" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>86</v>
+      </c>
+      <c r="B75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C75" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>48</v>
+      </c>
+      <c r="B76" t="s">
+        <v>66</v>
+      </c>
+      <c r="C76" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>54</v>
+      </c>
+      <c r="B77" t="s">
+        <v>56</v>
+      </c>
+      <c r="C77" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="37" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>40</v>
+      </c>
+      <c r="B80" t="s">
+        <v>69</v>
+      </c>
+      <c r="C80" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>33</v>
+      </c>
+      <c r="B81" t="s">
+        <v>105</v>
+      </c>
+      <c r="C81" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>103</v>
+      </c>
+      <c r="B82" t="s">
+        <v>42</v>
+      </c>
+      <c r="C82" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>98</v>
+      </c>
+      <c r="B83" t="s">
+        <v>79</v>
+      </c>
+      <c r="C83" t="s">
+        <v>137</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/scripts/pga-2019.xlsx
+++ b/scripts/pga-2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mweimer/Documents/Github/golf-pool/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA75D18-0A99-5C44-B718-4E20BFEBE5AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD6B6FA-8F7D-2845-AC63-F24581C1E67F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="233">
   <si>
     <t>2019 PGA Championship Player Pool</t>
   </si>
@@ -774,6 +774,9 @@
   </si>
   <si>
     <t>Kevin O'Brien</t>
+  </si>
+  <si>
+    <t>Tony Turgeon</t>
   </si>
 </sst>
 </file>
@@ -58946,10 +58949,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D79E31-963C-1442-9EC1-CBC71C324A02}">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -59646,6 +59649,55 @@
         <v>137</v>
       </c>
     </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="37" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>32</v>
+      </c>
+      <c r="B86" t="s">
+        <v>40</v>
+      </c>
+      <c r="C86" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>33</v>
+      </c>
+      <c r="B87" t="s">
+        <v>41</v>
+      </c>
+      <c r="C87" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>35</v>
+      </c>
+      <c r="B88" t="s">
+        <v>42</v>
+      </c>
+      <c r="C88" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>36</v>
+      </c>
+      <c r="B89" t="s">
+        <v>44</v>
+      </c>
+      <c r="C89" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/scripts/pga-2019.xlsx
+++ b/scripts/pga-2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mweimer/Documents/Github/golf-pool/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD6B6FA-8F7D-2845-AC63-F24581C1E67F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C256C44-4EC2-B34E-9A12-9645F798E2E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="234">
   <si>
     <t>2019 PGA Championship Player Pool</t>
   </si>
@@ -778,6 +778,9 @@
   <si>
     <t>Tony Turgeon</t>
   </si>
+  <si>
+    <t>Nate Heckman</t>
+  </si>
 </sst>
 </file>
 
@@ -1143,19 +1146,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1474,8 +1477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -30812,23 +30815,23 @@
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="40"/>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
       <c r="J4" s="40"/>
-      <c r="K4" s="46" t="s">
+      <c r="K4" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
       <c r="N4" s="40"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -30845,26 +30848,26 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="40"/>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
       <c r="J5" s="40"/>
-      <c r="K5" s="41" t="s">
+      <c r="K5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
       <c r="N5" s="40"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -30881,7 +30884,7 @@
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="44"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="19" t="s">
         <v>25</v>
       </c>
@@ -30933,7 +30936,7 @@
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="45"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="24"/>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
@@ -30961,26 +30964,26 @@
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
       <c r="F8" s="40"/>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
       <c r="J8" s="40"/>
-      <c r="K8" s="41" t="s">
+      <c r="K8" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
       <c r="N8" s="40"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -30997,7 +31000,7 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="44"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="19" t="s">
         <v>25</v>
       </c>
@@ -31049,7 +31052,7 @@
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="45"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="24"/>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
@@ -31077,26 +31080,26 @@
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
       <c r="F11" s="40"/>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
       <c r="J11" s="40"/>
-      <c r="K11" s="41" t="s">
+      <c r="K11" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
       <c r="N11" s="40"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -31113,7 +31116,7 @@
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="44"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="19" t="s">
         <v>25</v>
       </c>
@@ -31165,7 +31168,7 @@
     </row>
     <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="45"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="24"/>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
@@ -31193,26 +31196,26 @@
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
       <c r="F14" s="40"/>
-      <c r="G14" s="41" t="s">
+      <c r="G14" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
       <c r="J14" s="40"/>
-      <c r="K14" s="41" t="s">
+      <c r="K14" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
       <c r="N14" s="40"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -31229,7 +31232,7 @@
     </row>
     <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="44"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="19" t="s">
         <v>25</v>
       </c>
@@ -31281,7 +31284,7 @@
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="45"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="24"/>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
@@ -58922,6 +58925,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:F5"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="G14:J14"/>
@@ -58932,15 +58944,6 @@
     <mergeCell ref="K11:N11"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="69" orientation="portrait"/>
@@ -58949,10 +58952,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D79E31-963C-1442-9EC1-CBC71C324A02}">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="F95" sqref="F95:J98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -59616,7 +59619,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>33</v>
       </c>
@@ -59627,7 +59630,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>103</v>
       </c>
@@ -59638,7 +59641,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>98</v>
       </c>
@@ -59649,12 +59652,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="37" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>32</v>
       </c>
@@ -59665,7 +59668,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>33</v>
       </c>
@@ -59676,7 +59679,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>35</v>
       </c>
@@ -59687,7 +59690,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>36</v>
       </c>
@@ -59697,6 +59700,62 @@
       <c r="C89" t="s">
         <v>54</v>
       </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="37" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>32</v>
+      </c>
+      <c r="B92" t="s">
+        <v>46</v>
+      </c>
+      <c r="C92" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" t="s">
+        <v>41</v>
+      </c>
+      <c r="C93" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B94" t="s">
+        <v>66</v>
+      </c>
+      <c r="C94" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B95" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C95" t="s">
+        <v>36</v>
+      </c>
+      <c r="F95" s="38"/>
+    </row>
+    <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F96" s="38"/>
+    </row>
+    <row r="97" spans="6:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F97" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
